--- a/Defect-Report.xlsx
+++ b/Defect-Report.xlsx
@@ -203,55 +203,204 @@
     <row r="2">
       <c r="A2" t="inlineStr" s="1">
         <is>
+          <t>3651659</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr" s="1">
+        <is>
+          <t>68224</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr" s="1">
+        <is>
+          <t>ATM Project</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr" s="1">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr" s="1">
+        <is>
+          <t>ATM_1-30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr" s="1">
+        <is>
+          <t>292204</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr" s="1">
+        <is>
+          <t>Bug</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr" s="1">
+        <is>
+          <t>92427,92429</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr" s="1">
+        <is>
+          <t>exploratory test,1.0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr" s="1">
+        <is>
+          <t>Withdrawing $20 causes machine to withdraw $40</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr" s="1">
+        <is>
+          <t>expected outcome is ATM withdrawing $20 from account with proper message
+Actual outcome was ATM withdrawing $40 from account with proper message
+Steps:
+1. turn on ATM
+2. insert 3 $20 bills
+3. insert card 1
+4. enter card 1's pin (42)
+5. select withdraw
+6. select checking
+7. select $100
+8. machine should say insufficient cash
+9. select $20
+10. ATM withdraws $40</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr" s="1">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr" s="1">
+        <is>
+          <t>Resolved</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr" s="1">
+        <is>
+          <t>319522</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr" s="1">
+        <is>
+          <t>LAB1-GroupX</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr" s="1">
+        <is>
+          <t>Jan. 26, 2022 15:43</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr" s="1">
+        <is>
+          <t>319522</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr" s="1">
+        <is>
+          <t>LAB1-GroupX</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr" s="1">
+        <is>
+          <t>Jan. 26, 2022 15:44</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr" s="1">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr" s="1">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr" s="1">
+        <is>
           <t>3641452</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr" s="1">
+      <c r="B3" t="inlineStr" s="1">
         <is>
           <t>68224</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr" s="1">
+      <c r="C3" t="inlineStr" s="1">
         <is>
           <t>ATM Project</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr" s="1">
+      <c r="D3" t="inlineStr" s="1">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr" s="1">
+      <c r="E3" t="inlineStr" s="1">
         <is>
           <t>ATM_1-5</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr" s="1">
+      <c r="F3" t="inlineStr" s="1">
         <is>
           <t>292204</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr" s="1">
+      <c r="G3" t="inlineStr" s="1">
         <is>
           <t>Bug</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr" s="1">
+      <c r="H3" t="inlineStr" s="1">
         <is>
           <t>92426,92429</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr" s="1">
+      <c r="I3" t="inlineStr" s="1">
         <is>
           <t>Manual Scripted Tests,1.0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr" s="1">
+      <c r="J3" t="inlineStr" s="1">
         <is>
           <t>Entering pin correctly after incorrectly entering it</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr" s="1">
+      <c r="K3" t="inlineStr" s="1">
         <is>
           <t>expected outcome is the pin is accepted
 actual outcome was the correct pin needs to be entered again
@@ -259,140 +408,140 @@
 Steps same as above test cases</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr" s="1">
+      <c r="L3" t="inlineStr" s="1">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr" s="1">
+      <c r="M3" t="inlineStr" s="1">
         <is>
           <t>In Progress</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr" s="1">
+      <c r="N3" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr" s="1">
         <is>
           <t>319522</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr" s="1">
+      <c r="S3" t="inlineStr" s="1">
         <is>
           <t>LAB1-GroupX</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr" s="1">
+      <c r="T3" t="inlineStr" s="1">
         <is>
           <t>Jan. 23, 2022 15:29</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr" s="1">
+      <c r="U3" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr" s="1">
         <is>
           <t>319530</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr" s="1">
+      <c r="W3" t="inlineStr" s="1">
         <is>
           <t>Jared Lundy</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr" s="1">
+      <c r="X3" t="inlineStr" s="1">
         <is>
           <t>Jan. 24, 2022 20:16</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr" s="1">
+      <c r="Y3" t="inlineStr" s="1">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr" s="1">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr" s="1">
         <is>
           <t>Jan. 24, 2022 20:16 Jared Lundy
 Test cases 37, 39 and 40 still fail for version 1.1. Entering a correct PIN after at least one incorrect PIN entry does not continue with the transaction as it should. Instead, it asks for the user to enter PIN again!</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr" s="1">
+    <row r="4">
+      <c r="A4" t="inlineStr" s="1">
         <is>
           <t>3641462</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr" s="1">
+      <c r="B4" t="inlineStr" s="1">
         <is>
           <t>68224</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr" s="1">
+      <c r="C4" t="inlineStr" s="1">
         <is>
           <t>ATM Project</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr" s="1">
+      <c r="D4" t="inlineStr" s="1">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr" s="1">
+      <c r="E4" t="inlineStr" s="1">
         <is>
           <t>ATM_1-13</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr" s="1">
+      <c r="F4" t="inlineStr" s="1">
         <is>
           <t>292204</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr" s="1">
+      <c r="G4" t="inlineStr" s="1">
         <is>
           <t>Bug</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr" s="1">
+      <c r="H4" t="inlineStr" s="1">
         <is>
           <t>92426,92429</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr" s="1">
+      <c r="I4" t="inlineStr" s="1">
         <is>
           <t>Manual Scripted Tests,1.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr" s="1">
+      <c r="J4" t="inlineStr" s="1">
         <is>
           <t>Deposit Error</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr" s="1">
+      <c r="K4" t="inlineStr" s="1">
         <is>
           <t>Depositing $40 in account 2 results in an incorrect balance update to $130 instead of $140.
 Expected output should have been an update to $140.
@@ -405,225 +554,85 @@
 7. Verify receipt and/or Logs</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr" s="1">
+      <c r="L4" t="inlineStr" s="1">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr" s="1">
+      <c r="M4" t="inlineStr" s="1">
         <is>
           <t>Resolved</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr" s="1">
+      <c r="N4" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr" s="1">
         <is>
           <t>319529</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr" s="1">
+      <c r="S4" t="inlineStr" s="1">
         <is>
           <t>Liana Goodman</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr" s="1">
+      <c r="T4" t="inlineStr" s="1">
         <is>
           <t>Jan. 23, 2022 15:37</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr" s="1">
+      <c r="U4" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr" s="1">
         <is>
           <t>319531</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr" s="1">
+      <c r="W4" t="inlineStr" s="1">
         <is>
           <t>Jordan Lundy</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr" s="1">
+      <c r="X4" t="inlineStr" s="1">
         <is>
           <t>Jan. 24, 2022 20:15</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr" s="1">
+      <c r="Y4" t="inlineStr" s="1">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr" s="1">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr" s="1">
         <is>
           <t>Jan. 24, 2022 20:15 Jordan Lundy
 system now has a proper balance of $140 instead of $130</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr" s="1">
-        <is>
-          <t>3641464</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr" s="1">
-        <is>
-          <t>68224</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr" s="1">
-        <is>
-          <t>ATM Project</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr" s="1">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr" s="1">
-        <is>
-          <t>ATM_1-14</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr" s="1">
-        <is>
-          <t>292204</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr" s="1">
-        <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr" s="1">
-        <is>
-          <t>92426,92429</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr" s="1">
-        <is>
-          <t>Manual Scripted Tests,1.0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr" s="1">
-        <is>
-          <t>Spelling mistakes in cancel transaction</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr" s="1">
-        <is>
-          <t>expected outcome after cancelling a transaction is "Would you like to do another transaction?"
-actual outcome is "Wood you like to do another transactio"
-Steps same as test case 17.</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr" s="1">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr" s="1">
-        <is>
-          <t>Resolved</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr" s="1">
-        <is>
-          <t>319522</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr" s="1">
-        <is>
-          <t>LAB1-GroupX</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr" s="1">
-        <is>
-          <t>Jan. 23, 2022 15:40</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr" s="1">
-        <is>
-          <t>319531</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr" s="1">
-        <is>
-          <t>Jordan Lundy</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr" s="1">
-        <is>
-          <t>Jan. 24, 2022 20:10</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr" s="1">
-        <is>
-          <t>Jan. 24, 2022 20:10 Jordan Lundy
-bug fixed in system 1.1, system now displays message without spelling errors</t>
         </is>
       </c>
     </row>
@@ -3198,7 +3207,7 @@
     <row r="23">
       <c r="A23" t="inlineStr" s="1">
         <is>
-          <t>3641498</t>
+          <t>3641475</t>
         </is>
       </c>
       <c r="B23" t="inlineStr" s="1">
@@ -3213,12 +3222,12 @@
       </c>
       <c r="D23" t="inlineStr" s="1">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E23" t="inlineStr" s="1">
         <is>
-          <t>ATM_1-21</t>
+          <t>ATM_1-17</t>
         </is>
       </c>
       <c r="F23" t="inlineStr" s="1">
@@ -3243,152 +3252,10 @@
       </c>
       <c r="J23" t="inlineStr" s="1">
         <is>
-          <t>Signed overflow in $20 bill insert</t>
+          <t>Invalid Card Use</t>
         </is>
       </c>
       <c r="K23" t="inlineStr" s="1">
-        <is>
-          <t>Expected outcome is the ATM turns on successfully and allows a user to insert their card
-Actual outcome was the system asked user to enter an integer number &gt;= 0
-steps:
-1. turn on the system
-2. insert 2147483648 in $20 bills</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr" s="1">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr" s="1">
-        <is>
-          <t>In Progress</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr" s="1">
-        <is>
-          <t>319522</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr" s="1">
-        <is>
-          <t>LAB1-GroupX</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr" s="1">
-        <is>
-          <t>Jan. 23, 2022 16:23</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr" s="1">
-        <is>
-          <t>319529</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr" s="1">
-        <is>
-          <t>Liana Goodman</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr" s="1">
-        <is>
-          <t>Jan. 24, 2022 09:15</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr" s="1">
-        <is>
-          <t>Jan. 24, 2022 09:15 Liana Goodman
-Bug still present in 1.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr" s="1">
-        <is>
-          <t>3641475</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr" s="1">
-        <is>
-          <t>68224</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr" s="1">
-        <is>
-          <t>ATM Project</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr" s="1">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr" s="1">
-        <is>
-          <t>ATM_1-17</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr" s="1">
-        <is>
-          <t>292204</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr" s="1">
-        <is>
-          <t>Bug</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr" s="1">
-        <is>
-          <t>92427,92429</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr" s="1">
-        <is>
-          <t>exploratory test,1.0</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr" s="1">
-        <is>
-          <t>Invalid Card Use</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr" s="1">
         <is>
           <t>When card 8 is used, the invalid card message does not appear until we try to enter a pin instead of providing the message right away.
 It is expected that an invalid card should display the error message right away.
@@ -3399,140 +3266,140 @@
 5. View error message.</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr" s="1">
+      <c r="L23" t="inlineStr" s="1">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr" s="1">
+      <c r="M23" t="inlineStr" s="1">
         <is>
           <t>In Progress</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr" s="1">
+      <c r="N23" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr" s="1">
         <is>
           <t>319529</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr" s="1">
+      <c r="S23" t="inlineStr" s="1">
         <is>
           <t>Liana Goodman</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr" s="1">
+      <c r="T23" t="inlineStr" s="1">
         <is>
           <t>Jan. 23, 2022 15:51</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr" s="1">
+      <c r="U23" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr" s="1">
         <is>
           <t>319529</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr" s="1">
+      <c r="W23" t="inlineStr" s="1">
         <is>
           <t>Liana Goodman</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr" s="1">
+      <c r="X23" t="inlineStr" s="1">
         <is>
           <t>Jan. 24, 2022 09:12</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z24" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr" s="1">
+      <c r="Y23" t="inlineStr" s="1">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr" s="1">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr" s="1">
         <is>
           <t>Jan. 24, 2022 09:12 Liana Goodman
 Bug still appears unchanged in 1.1</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr" s="1">
+    <row r="24">
+      <c r="A24" t="inlineStr" s="1">
         <is>
           <t>3641504</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr" s="1">
+      <c r="B24" t="inlineStr" s="1">
         <is>
           <t>68224</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr" s="1">
+      <c r="C24" t="inlineStr" s="1">
         <is>
           <t>ATM Project</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr" s="1">
+      <c r="D24" t="inlineStr" s="1">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr" s="1">
+      <c r="E24" t="inlineStr" s="1">
         <is>
           <t>ATM_1-23</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr" s="1">
+      <c r="F24" t="inlineStr" s="1">
         <is>
           <t>292204</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr" s="1">
+      <c r="G24" t="inlineStr" s="1">
         <is>
           <t>Bug</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr" s="1">
+      <c r="H24" t="inlineStr" s="1">
         <is>
           <t>92427,92429</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr" s="1">
+      <c r="I24" t="inlineStr" s="1">
         <is>
           <t>exploratory test,1.0</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr" s="1">
+      <c r="J24" t="inlineStr" s="1">
         <is>
           <t>Leading zeroes PIN number accepted</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr" s="1">
+      <c r="K24" t="inlineStr" s="1">
         <is>
           <t>Function tested: Entering a valid pin with leading zeroes at the front, making it an invalid PIN
 Initial system state: awaiting PIN entry by user
@@ -3541,140 +3408,140 @@
 Actual outcome: Accepts the PIN and continue </t>
         </is>
       </c>
-      <c r="L25" t="inlineStr" s="1">
+      <c r="L24" t="inlineStr" s="1">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr" s="1">
+      <c r="M24" t="inlineStr" s="1">
         <is>
           <t>In Progress</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr" s="1">
+      <c r="N24" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr" s="1">
         <is>
           <t>319530</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr" s="1">
+      <c r="Q24" t="inlineStr" s="1">
         <is>
           <t>Jared Lundy</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr" s="1">
+      <c r="R24" t="inlineStr" s="1">
         <is>
           <t>319530</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr" s="1">
+      <c r="S24" t="inlineStr" s="1">
         <is>
           <t>Jared Lundy</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr" s="1">
+      <c r="T24" t="inlineStr" s="1">
         <is>
           <t>Jan. 23, 2022 16:34</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr" s="1">
+      <c r="U24" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr" s="1">
         <is>
           <t>319529</t>
         </is>
       </c>
-      <c r="W25" t="inlineStr" s="1">
+      <c r="W24" t="inlineStr" s="1">
         <is>
           <t>Liana Goodman</t>
         </is>
       </c>
-      <c r="X25" t="inlineStr" s="1">
+      <c r="X24" t="inlineStr" s="1">
         <is>
           <t>Jan. 24, 2022 09:12</t>
         </is>
       </c>
-      <c r="Y25" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA25" t="inlineStr" s="1">
+      <c r="Y24" t="inlineStr" s="1">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr" s="1">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr" s="1">
         <is>
           <t>Jan. 24, 2022 09:12 Liana Goodman
 Bug still appears (unchanged) in 1.1</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr" s="1">
+    <row r="25">
+      <c r="A25" t="inlineStr" s="1">
         <is>
           <t>3641478</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr" s="1">
+      <c r="B25" t="inlineStr" s="1">
         <is>
           <t>68224</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr" s="1">
+      <c r="C25" t="inlineStr" s="1">
         <is>
           <t>ATM Project</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr" s="1">
+      <c r="D25" t="inlineStr" s="1">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr" s="1">
+      <c r="E25" t="inlineStr" s="1">
         <is>
           <t>ATM_1-18</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr" s="1">
+      <c r="F25" t="inlineStr" s="1">
         <is>
           <t>292204</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr" s="1">
+      <c r="G25" t="inlineStr" s="1">
         <is>
           <t>Bug</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr" s="1">
+      <c r="H25" t="inlineStr" s="1">
         <is>
           <t>92427,92429</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr" s="1">
+      <c r="I25" t="inlineStr" s="1">
         <is>
           <t>exploratory test,1.0</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr" s="1">
+      <c r="J25" t="inlineStr" s="1">
         <is>
           <t>Entering an invalid long pin</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr" s="1">
+      <c r="K25" t="inlineStr" s="1">
         <is>
           <t>Entering a pin 42569853256 for card 1 causes the ATM screen to go blank and stop working. The system should provide an invalid pin error and prompt the user to try entering their pin again.
 1. Start system
@@ -3683,140 +3550,140 @@
 4. enter pin 42569853256</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr" s="1">
+      <c r="L25" t="inlineStr" s="1">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr" s="1">
+      <c r="M25" t="inlineStr" s="1">
         <is>
           <t>In Progress</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr" s="1">
+      <c r="N25" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr" s="1">
         <is>
           <t>319529</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr" s="1">
+      <c r="S25" t="inlineStr" s="1">
         <is>
           <t>Liana Goodman</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr" s="1">
+      <c r="T25" t="inlineStr" s="1">
         <is>
           <t>Jan. 23, 2022 15:52</t>
         </is>
       </c>
-      <c r="U26" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr" s="1">
+      <c r="U25" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr" s="1">
         <is>
           <t>319529</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr" s="1">
+      <c r="W25" t="inlineStr" s="1">
         <is>
           <t>Liana Goodman</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr" s="1">
+      <c r="X25" t="inlineStr" s="1">
         <is>
           <t>Jan. 24, 2022 09:11</t>
         </is>
       </c>
-      <c r="Y26" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z26" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA26" t="inlineStr" s="1">
+      <c r="Y25" t="inlineStr" s="1">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr" s="1">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr" s="1">
         <is>
           <t>Jan. 24, 2022 09:11 Liana Goodman
 Bug still appears in 1.1</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr" s="1">
+    <row r="26">
+      <c r="A26" t="inlineStr" s="1">
         <is>
           <t>3641505</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr" s="1">
+      <c r="B26" t="inlineStr" s="1">
         <is>
           <t>68224</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr" s="1">
+      <c r="C26" t="inlineStr" s="1">
         <is>
           <t>ATM Project</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr" s="1">
+      <c r="D26" t="inlineStr" s="1">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr" s="1">
+      <c r="E26" t="inlineStr" s="1">
         <is>
           <t>ATM_1-24</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr" s="1">
+      <c r="F26" t="inlineStr" s="1">
         <is>
           <t>292204</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr" s="1">
+      <c r="G26" t="inlineStr" s="1">
         <is>
           <t>Bug</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr" s="1">
+      <c r="H26" t="inlineStr" s="1">
         <is>
           <t>92427,92429</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr" s="1">
+      <c r="I26" t="inlineStr" s="1">
         <is>
           <t>exploratory test,1.0</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr" s="1">
+      <c r="J26" t="inlineStr" s="1">
         <is>
           <t>Withdrawing any amount of money with 2147483647 $20 bills in the ATM</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr" s="1">
+      <c r="K26" t="inlineStr" s="1">
         <is>
           <t>Expected outcome is the ATM dispensing the correct amount of cash
 Actual outcome is the ATM printing to screen "insuficient cash available"
@@ -3830,140 +3697,140 @@
 7. select any amount</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr" s="1">
+      <c r="L26" t="inlineStr" s="1">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr" s="1">
+      <c r="M26" t="inlineStr" s="1">
         <is>
           <t>In Progress</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr" s="1">
+      <c r="N26" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr" s="1">
         <is>
           <t>319522</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr" s="1">
+      <c r="S26" t="inlineStr" s="1">
         <is>
           <t>LAB1-GroupX</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr" s="1">
+      <c r="T26" t="inlineStr" s="1">
         <is>
           <t>Jan. 23, 2022 16:34</t>
         </is>
       </c>
-      <c r="U27" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr" s="1">
+      <c r="U26" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr" s="1">
         <is>
           <t>319529</t>
         </is>
       </c>
-      <c r="W27" t="inlineStr" s="1">
+      <c r="W26" t="inlineStr" s="1">
         <is>
           <t>Liana Goodman</t>
         </is>
       </c>
-      <c r="X27" t="inlineStr" s="1">
+      <c r="X26" t="inlineStr" s="1">
         <is>
           <t>Jan. 24, 2022 09:11</t>
         </is>
       </c>
-      <c r="Y27" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr" s="1">
+      <c r="Y26" t="inlineStr" s="1">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr" s="1">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr" s="1">
         <is>
           <t>Jan. 24, 2022 09:11 Liana Goodman
 Bug still appears in 1.1</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr" s="1">
+    <row r="27">
+      <c r="A27" t="inlineStr" s="1">
         <is>
           <t>3641472</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr" s="1">
+      <c r="B27" t="inlineStr" s="1">
         <is>
           <t>68224</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr" s="1">
+      <c r="C27" t="inlineStr" s="1">
         <is>
           <t>ATM Project</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr" s="1">
+      <c r="D27" t="inlineStr" s="1">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr" s="1">
+      <c r="E27" t="inlineStr" s="1">
         <is>
           <t>ATM_1-16</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr" s="1">
+      <c r="F27" t="inlineStr" s="1">
         <is>
           <t>292204</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr" s="1">
+      <c r="G27" t="inlineStr" s="1">
         <is>
           <t>Bug</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr" s="1">
+      <c r="H27" t="inlineStr" s="1">
         <is>
           <t>92427,92429</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr" s="1">
+      <c r="I27" t="inlineStr" s="1">
         <is>
           <t>exploratory test,1.0</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr" s="1">
+      <c r="J27" t="inlineStr" s="1">
         <is>
           <t>Depositing $100 in savings added $90</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr" s="1">
+      <c r="K27" t="inlineStr" s="1">
         <is>
           <t>expected outcome is $100 being successfully deposited into the savings account
 actual outcome is $90 being successfully deposited in the savings account, verified by receipt 
@@ -3977,82 +3844,82 @@
 7. enter $100.00</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr" s="1">
+      <c r="L27" t="inlineStr" s="1">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr" s="1">
+      <c r="M27" t="inlineStr" s="1">
         <is>
           <t>In Progress</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr" s="1">
+      <c r="N27" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr" s="1">
         <is>
           <t>319522</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr" s="1">
+      <c r="S27" t="inlineStr" s="1">
         <is>
           <t>LAB1-GroupX</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr" s="1">
+      <c r="T27" t="inlineStr" s="1">
         <is>
           <t>Jan. 23, 2022 15:49</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr" s="1">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr" s="1">
+      <c r="U27" t="inlineStr" s="1">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr" s="1">
         <is>
           <t>319529</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr" s="1">
+      <c r="W27" t="inlineStr" s="1">
         <is>
           <t>Liana Goodman</t>
         </is>
       </c>
-      <c r="X28" t="inlineStr" s="1">
+      <c r="X27" t="inlineStr" s="1">
         <is>
           <t>Jan. 24, 2022 09:10</t>
         </is>
       </c>
-      <c r="Y28" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr" s="1">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr" s="1">
+      <c r="Y27" t="inlineStr" s="1">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr" s="1">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr" s="1">
         <is>
           <t>Jan. 24, 2022 09:10 Liana Goodman
 Bug still appears in 1.1 but now instead of displaying $90 it displays $99.90 which is still less than the full $100 that should have been deposited. </t>
